--- a/gdp/GDP Computation.xlsx
+++ b/gdp/GDP Computation.xlsx
@@ -3354,7 +3354,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3428,7 +3427,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3460,7 +3458,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3518,7 +3515,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3970,7 +3966,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4044,7 +4039,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4076,7 +4070,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4319,7 +4312,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4393,7 +4385,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4425,7 +4416,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4483,7 +4473,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4940,7 +4929,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5014,7 +5002,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5046,7 +5033,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5289,7 +5275,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5363,7 +5348,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5395,7 +5379,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5580,7 +5563,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
@@ -5653,7 +5635,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5685,7 +5666,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -6246,10 +6226,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Italy!$Q$3:$Q$9</c:f>
+              <c:f>Italy!$Q$3:$Q$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -15178,7 +15158,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O15" workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>

--- a/gdp/GDP Computation.xlsx
+++ b/gdp/GDP Computation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="9495" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="9495" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Bins" sheetId="1" r:id="rId1"/>
@@ -3202,10 +3202,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Philippines!$O$3:$O$9</c:f>
+              <c:f>Philippines!$O$3:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3354,6 +3354,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3427,6 +3428,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3458,6 +3460,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3515,6 +3518,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3966,6 +3970,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4039,6 +4044,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4070,6 +4076,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4160,10 +4167,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sweden!$T$3:$T$9</c:f>
+              <c:f>Sweden!$T$3:$T$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.3</c:v>
                 </c:pt>
@@ -4312,6 +4319,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4385,6 +4393,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4416,6 +4425,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4473,6 +4483,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4929,6 +4940,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5002,6 +5014,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5033,6 +5046,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5123,10 +5137,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Singapore!$U$4:$U$10</c:f>
+              <c:f>Singapore!$U$4:$U$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>-0.8</c:v>
                 </c:pt>
@@ -5275,6 +5289,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5348,6 +5363,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5379,6 +5395,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5440,10 +5457,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Japan!$T$3:$T$9</c:f>
+              <c:f>Japan!$T$3:$T$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -5563,6 +5580,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
@@ -5635,6 +5653,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5666,6 +5685,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -6914,10 +6934,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame macro="">
@@ -8236,7 +8256,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE1012"/>
   <sheetViews>
-    <sheetView topLeftCell="S15" workbookViewId="0"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -15158,8 +15180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O15" workbookViewId="0">
-      <selection activeCell="X27" sqref="X27"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -28175,7 +28197,7 @@
   <dimension ref="A1:U1003"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -43224,7 +43246,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -51110,7 +51134,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1004"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
